--- a/src/templateReleases.xlsx
+++ b/src/templateReleases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499148DF-22CD-264C-A898-48DB807E16EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC5D29-F0F6-CC42-A7A8-67695DC0BCE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40760" yWindow="10080" windowWidth="37560" windowHeight="10540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-35560" yWindow="8860" windowWidth="37560" windowHeight="10540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,11 +68,11 @@
     <t>InputArguments</t>
   </si>
   <si>
-    <t>Arguments_</t>
+    <t>Arguments</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ProcessSettings_</t>
+    <t>ProcessSettings</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
